--- a/data/tri_state/sampling_sites/2018may_dcrab_da_sampling_sites.xlsx
+++ b/data/tri_state/sampling_sites/2018may_dcrab_da_sampling_sites.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/domoic_acid_mgmt/data/tri_state/sampling_sites/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A377BF-D18A-F94B-902A-246F7AF4CBC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB79499-F179-E344-8841-DDD5CD6BC3D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22760" yWindow="3660" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{85CAFC41-C621-D94D-9406-458A45C0D7F8}"/>
+    <workbookView xWindow="17000" yWindow="6980" windowWidth="28040" windowHeight="17440" xr2:uid="{85CAFC41-C621-D94D-9406-458A45C0D7F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sites" sheetId="2" r:id="rId1"/>
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8BD7A6-83D4-0046-8F1A-9CA9FD54345E}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -826,12 +826,12 @@
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1">
@@ -1890,7 +1890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F62BD12-74E2-814A-902D-2E1196BFE5A5}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
